--- a/TradeSimulation/ListTradeTran.xlsx
+++ b/TradeSimulation/ListTradeTran.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonDev\MyQuantFinProject\FinQuant\TradeSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC78EDDC-15B1-4651-B2F4-ED609499DA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046658D-1C38-49DF-ACF1-9EA16D6A0D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TradePlan" sheetId="1" r:id="rId1"/>
+    <sheet name="oct20-may22" sheetId="1" r:id="rId1"/>
+    <sheet name="july22-sep22" sheetId="2" r:id="rId2"/>
+    <sheet name="nov22-now" sheetId="3" r:id="rId3"/>
+    <sheet name="bad_y22" sheetId="4" r:id="rId4"/>
+    <sheet name="accY22StartJuly22" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="5">
   <si>
     <t>trade_date</t>
   </si>
@@ -377,9 +381,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89BA9F2-17EA-4827-9073-1787C57BFB9A}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -401,10 +544,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44166</v>
+        <v>44764</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -412,10 +555,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44201</v>
+        <v>44769</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -423,10 +566,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44211</v>
+        <v>44783</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -434,10 +577,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44228</v>
+        <v>44789</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -445,10 +588,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44580</v>
+        <v>44805</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -456,10 +599,195 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44602</v>
+        <v>44819</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C860411-5B0D-493C-BD58-F002D40865C3}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3487C292-E5A0-45E9-AF14-1A764E537CD6}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -467,10 +795,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44623</v>
+        <v>44805</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -478,12 +806,108 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44680</v>
+        <v>44830</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED74781-8BCE-4E72-ACE9-B37CDB1FA202}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
